--- a/docs/datos de datos.xlsx
+++ b/docs/datos de datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP PC\Documents\Talleres\T4_202010\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Talleres\T4_202010\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10C1C18-E569-44FD-94B6-CC50EC0053BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C33042-939B-45F8-9001-78A373EFF0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>MaxColaCP</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>18529Milisegundos</t>
+  </si>
+  <si>
+    <t>Cuando el dato de encuentra al inicio</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>Cuando el dato que se va a agregar queda de ultimo en la cola</t>
+  </si>
+  <si>
+    <t>Cuando se tiene solo un elemento en le cola</t>
+  </si>
+  <si>
+    <t>Sacar siempre tiene complejidad O(N)</t>
   </si>
 </sst>
 </file>
@@ -373,6 +388,78 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,78 +471,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,321 +755,354 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:J22"/>
+      <selection activeCell="I11" sqref="I11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="7" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="26"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="10"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A5:F6"/>
+    <mergeCell ref="A7:F8"/>
+    <mergeCell ref="A11:F12"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="I13:J14"/>
     <mergeCell ref="G21:H22"/>
     <mergeCell ref="I21:J22"/>
     <mergeCell ref="A9:F10"/>
@@ -1071,23 +1119,6 @@
     <mergeCell ref="A19:F20"/>
     <mergeCell ref="A21:F22"/>
     <mergeCell ref="A13:F14"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A5:F6"/>
-    <mergeCell ref="A7:F8"/>
-    <mergeCell ref="A11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
